--- a/data/processed/2023-task-groups-mapping.xlsx
+++ b/data/processed/2023-task-groups-mapping.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vstraub/Documents/github-repos/decision-services-index/data/processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\3-research\3-active-projects\2023-desindex\structural-insights-into-uk-gov\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3709324E-DAF2-A54A-B807-20F616FA3FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{12A8C646-3D35-934A-9850-8AD4CAFF7EE1}"/>
+    <workbookView xWindow="2676" yWindow="1320" windowWidth="27636" windowHeight="16944"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$195</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={E2B5D36B-CC6A-734F-BF44-6CA895427AB5}</author>
     <author>tc={07B16DB4-F1E3-A748-9D20-A95405181895}</author>
@@ -48,69 +50,141 @@
     <author>tc={E013DA84-E238-FB42-ACDD-0E35EE4BFF3E}</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E2B5D36B-CC6A-734F-BF44-6CA895427AB5}">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Keywords 'participating' and 'legislative' corresponds closest to 'pleading in courts of law' mentioned in NRI</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{07B16DB4-F1E3-A748-9D20-A95405181895}">
+    <comment ref="B5" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Keywords 'making' and 'public rules' align closest to 'establishing (objectives, budgets, rules, procedures, standards) in NRA.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="2" shapeId="0" xr:uid="{1FF68911-126C-BB45-953F-6F2946830EB1}">
+    <comment ref="B6" authorId="2" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Statement 'serving on government admin. boards'' aligns closest to 'representing individuals or organisations' in NRI.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="3" shapeId="0" xr:uid="{F591920A-AA69-6B48-96B3-F249887A1F1A}">
+    <comment ref="B7" authorId="3" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Relates closest to 'Analysing data or information; Interpreting the meaning of information for others' from description of NRA.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="4" shapeId="0" xr:uid="{CD3065BB-1DC1-7D4E-B4EA-34A1F7AE8E8D}">
+    <comment ref="B8" authorId="4" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Relates closest to 'Establishing and maintaining interpersonal relationships' and 'Coaching and developing others' from description of NRI.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="5" shapeId="0" xr:uid="{05361EE2-0370-B645-A7F5-1C65A2EF8216}">
+    <comment ref="B14" authorId="5" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Used the keyword "evaluating" from this statement, rather than "formulating" or "approving":
 "formulating" does not exist in database, "approving" classification in the database does not capture the meaning intended here</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="6" shapeId="0" xr:uid="{562708D2-F678-9244-81BF-F0FB9090DE8E}">
+    <comment ref="B16" authorId="6" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Keyword 'budget' aligns closest with 'establishing (objectives, budgets, rules, etc...) in NRA.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="7" shapeId="0" xr:uid="{E013DA84-E238-FB42-ACDD-0E35EE4BFF3E}">
+    <comment ref="B18" authorId="7" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Relates closest to 'Analysing data or information' and 'Interpreting the meaning of information for others' from description of NRA.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -723,7 +797,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -783,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -802,6 +876,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,20 +1229,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8199AED1-EBDD-4341-8F06-09B8DCC19DAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="85.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>198</v>
       </c>
@@ -1173,7 +1250,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>155</v>
       </c>
@@ -1181,7 +1258,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1197,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1205,7 +1282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1221,7 +1298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1229,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1237,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1253,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1261,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1269,7 +1346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1277,7 +1354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1285,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1293,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1301,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,7 +1386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1317,7 +1394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1325,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1333,7 +1410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1341,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1349,7 +1426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1357,7 +1434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1365,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1373,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1381,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1389,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1397,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1405,7 +1482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1413,7 +1490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1421,7 +1498,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1429,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1437,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1445,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1453,7 +1530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1461,7 +1538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1469,7 +1546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1477,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1485,15 +1562,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1501,7 +1578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1509,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1517,7 +1594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1525,7 +1602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1533,7 +1610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1541,7 +1618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -1549,7 +1626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1557,7 +1634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1565,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -1573,7 +1650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -1581,7 +1658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -1589,7 +1666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -1597,7 +1674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -1605,7 +1682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -1613,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -1621,7 +1698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -1629,7 +1706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -1637,7 +1714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -1645,7 +1722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -1653,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -1661,7 +1738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -1669,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -1677,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -1685,15 +1762,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -1701,23 +1778,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -1725,15 +1802,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
@@ -1741,7 +1818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -1749,7 +1826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -1757,7 +1834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
@@ -1765,7 +1842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -1773,7 +1850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -1781,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -1789,7 +1866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -1797,7 +1874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -1805,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
@@ -1813,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
@@ -1821,15 +1898,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
@@ -1837,23 +1914,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -1861,23 +1938,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
@@ -1885,39 +1962,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -1925,23 +2002,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
@@ -1949,7 +2026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
@@ -1957,15 +2034,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
@@ -1973,23 +2050,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
@@ -1997,23 +2074,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
@@ -2021,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
@@ -2029,15 +2106,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -2045,15 +2122,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -2061,7 +2138,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -2069,15 +2146,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+    <row r="114" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -2085,7 +2162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -2093,31 +2170,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+    <row r="117" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -2125,15 +2202,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+    <row r="121" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -2141,15 +2218,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -2157,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -2165,23 +2242,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+    <row r="127" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -2189,15 +2266,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -2205,7 +2282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -2213,31 +2290,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+    <row r="132" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -2245,15 +2322,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+    <row r="136" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A136" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -2261,7 +2338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -2269,23 +2346,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+    <row r="140" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -2293,7 +2370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -2301,7 +2378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -2309,7 +2386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -2317,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -2325,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -2333,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -2341,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -2349,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -2357,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -2365,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -2373,23 +2450,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
+    <row r="152" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A152" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -2397,135 +2474,135 @@
         <v>156</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
+    <row r="161" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A161" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
+    <row r="164" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A164" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
+    <row r="166" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A166" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+    <row r="170" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A170" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>173</v>
       </c>
@@ -2533,15 +2610,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>175</v>
       </c>
@@ -2549,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>176</v>
       </c>
@@ -2557,15 +2634,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="7" t="s">
         <v>177</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
@@ -2573,7 +2650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
@@ -2581,23 +2658,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
@@ -2605,55 +2682,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A181" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
+    <row r="182" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A182" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
+    <row r="183" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A183" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
+    <row r="184" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A184" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
+    <row r="185" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A185" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
+    <row r="186" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A186" s="7" t="s">
         <v>188</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
@@ -2661,23 +2738,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
+    <row r="188" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A188" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
@@ -2685,23 +2762,23 @@
         <v>109</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
+    <row r="191" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A191" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
+    <row r="192" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A192" s="7" t="s">
         <v>194</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>195</v>
       </c>
@@ -2709,7 +2786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>196</v>
       </c>
@@ -2717,7 +2794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>197</v>
       </c>
@@ -2726,7 +2803,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B195"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>